--- a/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2480DAF-AB46-4899-9F79-2DF22DC10D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0323C8F-9A87-4B98-885E-A28950556354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="885" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="540" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1737,9 +1737,9 @@
   <dimension ref="A1:AX159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13881,31 +13881,31 @@
         <v>0</v>
       </c>
       <c r="J80" s="3">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0</v>
+      </c>
+      <c r="R80" s="3">
         <v>50</v>
-      </c>
-      <c r="K80" s="3">
-        <v>0</v>
-      </c>
-      <c r="L80" s="3">
-        <v>0</v>
-      </c>
-      <c r="M80" s="3">
-        <v>0</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0</v>
-      </c>
-      <c r="O80" s="3">
-        <v>0</v>
-      </c>
-      <c r="P80" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>0</v>
-      </c>
-      <c r="R80" s="3">
-        <v>0</v>
       </c>
       <c r="S80" s="3">
         <v>0</v>
@@ -14034,7 +14034,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -14058,7 +14058,7 @@
         <v>50</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
@@ -14187,7 +14187,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K82" s="3">
         <v>0</v>
@@ -14211,7 +14211,7 @@
         <v>50</v>
       </c>
       <c r="R82" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S82" s="3">
         <v>0</v>
@@ -14340,7 +14340,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -14364,7 +14364,7 @@
         <v>50</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -14493,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K84" s="3">
         <v>0</v>
@@ -14517,7 +14517,7 @@
         <v>50</v>
       </c>
       <c r="R84" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S84" s="3">
         <v>0</v>
@@ -14646,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
@@ -14670,7 +14670,7 @@
         <v>50</v>
       </c>
       <c r="R85" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S85" s="3">
         <v>0</v>
@@ -14799,7 +14799,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K86" s="3">
         <v>0</v>
@@ -14823,7 +14823,7 @@
         <v>130</v>
       </c>
       <c r="R86" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S86" s="3">
         <v>0</v>
@@ -14952,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K87" s="3">
         <v>0</v>
@@ -14976,7 +14976,7 @@
         <v>50</v>
       </c>
       <c r="R87" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S87" s="3">
         <v>0</v>
@@ -15105,7 +15105,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K88" s="3">
         <v>0</v>
@@ -15129,7 +15129,7 @@
         <v>50</v>
       </c>
       <c r="R88" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S88" s="3">
         <v>0</v>
@@ -15258,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -15282,7 +15282,7 @@
         <v>50</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -15411,7 +15411,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K90" s="3">
         <v>0</v>
@@ -15435,7 +15435,7 @@
         <v>50</v>
       </c>
       <c r="R90" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S90" s="3">
         <v>0</v>
@@ -15564,7 +15564,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -15588,7 +15588,7 @@
         <v>50</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -18012,7 +18012,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K107" s="3">
         <v>0</v>
@@ -18036,7 +18036,7 @@
         <v>100</v>
       </c>
       <c r="R107" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S107" s="3">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054C9C59-32BD-410C-8A44-46492219B4E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4F45E9-4CED-422F-AB64-4972203A8B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1080" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1335" yWindow="915" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1745,9 +1745,9 @@
   <dimension ref="A1:AX160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4F45E9-4CED-422F-AB64-4972203A8B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B3EA8-31D5-4CBE-83B5-3D255E1F5785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="915" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1005" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1745,9 +1745,9 @@
   <dimension ref="A1:AX160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="3">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8B3EA8-31D5-4CBE-83B5-3D255E1F5785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89800689-B140-416D-9CEF-5182F15326BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1005" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="975" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="302">
   <si>
     <t>desc</t>
   </si>
@@ -1326,6 +1326,20 @@
   </si>
   <si>
     <t>sakura_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yaki_maron</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>焼き栗</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>グリ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1742,12 +1756,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AX160"/>
+  <dimension ref="A1:AX161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1927,7 +1941,7 @@
     </row>
     <row r="2" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A160" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A161" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -25340,10 +25354,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="3">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>148</v>
+        <v>300</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>7</v>
@@ -25355,16 +25369,16 @@
         <v>0</v>
       </c>
       <c r="G155" s="3">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H155" s="3">
         <v>0</v>
       </c>
       <c r="I155" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J155" s="3">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="K155" s="3">
         <v>0</v>
@@ -25385,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="Q155" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R155" s="3">
         <v>0</v>
@@ -25424,10 +25438,10 @@
         <v>7</v>
       </c>
       <c r="AD155" s="5" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="AE155" s="5" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="AF155" s="5" t="s">
         <v>7</v>
@@ -25451,10 +25465,10 @@
         <v>0</v>
       </c>
       <c r="AM155" s="5">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AN155" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AO155" s="5">
         <v>0</v>
@@ -25475,10 +25489,10 @@
         <v>0</v>
       </c>
       <c r="AU155" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AV155" s="4" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="AW155" s="5">
         <v>0</v>
@@ -25493,13 +25507,13 @@
         <v>154</v>
       </c>
       <c r="B156" s="3">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="E156" s="3">
         <v>0</v>
@@ -25508,130 +25522,130 @@
         <v>0</v>
       </c>
       <c r="G156" s="3">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="H156" s="3">
+        <v>0</v>
+      </c>
+      <c r="I156" s="3">
+        <v>60</v>
+      </c>
+      <c r="J156" s="3">
+        <v>120</v>
+      </c>
+      <c r="K156" s="3">
+        <v>0</v>
+      </c>
+      <c r="L156" s="3">
+        <v>0</v>
+      </c>
+      <c r="M156" s="3">
+        <v>0</v>
+      </c>
+      <c r="N156" s="3">
+        <v>0</v>
+      </c>
+      <c r="O156" s="3">
+        <v>0</v>
+      </c>
+      <c r="P156" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="3">
+        <v>50</v>
+      </c>
+      <c r="R156" s="3">
+        <v>0</v>
+      </c>
+      <c r="S156" s="3">
+        <v>0</v>
+      </c>
+      <c r="T156" s="3">
+        <v>0</v>
+      </c>
+      <c r="U156" s="3">
+        <v>0</v>
+      </c>
+      <c r="V156" s="3">
+        <v>0</v>
+      </c>
+      <c r="W156" s="3">
+        <v>0</v>
+      </c>
+      <c r="X156" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z156" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA156" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB156" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD156" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE156" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL156" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM156" s="5">
+        <v>60</v>
+      </c>
+      <c r="AN156" s="5">
         <v>30</v>
       </c>
-      <c r="I156" s="3">
-        <v>0</v>
-      </c>
-      <c r="J156" s="3">
-        <v>70</v>
-      </c>
-      <c r="K156" s="3">
-        <v>0</v>
-      </c>
-      <c r="L156" s="3">
-        <v>0</v>
-      </c>
-      <c r="M156" s="3">
-        <v>0</v>
-      </c>
-      <c r="N156" s="3">
-        <v>0</v>
-      </c>
-      <c r="O156" s="3">
-        <v>0</v>
-      </c>
-      <c r="P156" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="3">
-        <v>80</v>
-      </c>
-      <c r="R156" s="3">
-        <v>0</v>
-      </c>
-      <c r="S156" s="3">
-        <v>0</v>
-      </c>
-      <c r="T156" s="3">
-        <v>0</v>
-      </c>
-      <c r="U156" s="3">
-        <v>0</v>
-      </c>
-      <c r="V156" s="3">
-        <v>0</v>
-      </c>
-      <c r="W156" s="3">
-        <v>0</v>
-      </c>
-      <c r="X156" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y156" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z156" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA156" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB156" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC156" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD156" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE156" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF156" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG156" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH156" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI156" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ156" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK156" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL156" s="5">
-        <v>-50</v>
-      </c>
-      <c r="AM156" s="5">
-        <v>30</v>
-      </c>
-      <c r="AN156" s="5">
-        <v>20</v>
-      </c>
       <c r="AO156" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AP156" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AQ156" s="5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AR156" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS156" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT156" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AU156" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AV156" s="4" t="s">
-        <v>113</v>
+        <v>269</v>
       </c>
       <c r="AW156" s="5">
         <v>0</v>
@@ -25646,13 +25660,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="3">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
@@ -25799,13 +25813,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="3">
-        <v>5020</v>
+        <v>5011</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>56</v>
+        <v>264</v>
       </c>
       <c r="E158" s="3">
         <v>0</v>
@@ -25814,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="G158" s="3">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="H158" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I158" s="3">
         <v>0</v>
       </c>
       <c r="J158" s="3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K158" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L158" s="3">
         <v>0</v>
@@ -25844,7 +25858,7 @@
         <v>0</v>
       </c>
       <c r="Q158" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="R158" s="3">
         <v>0</v>
@@ -25880,64 +25894,64 @@
         <v>0</v>
       </c>
       <c r="AC158" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD158" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="AD158" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="AE158" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AF158" s="5" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="AG158" s="5" t="s">
-        <v>7</v>
+        <v>256</v>
       </c>
       <c r="AH158" s="5" t="s">
-        <v>7</v>
+        <v>257</v>
       </c>
       <c r="AI158" s="5" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="AJ158" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="AK158" s="5" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="AL158" s="5">
-        <v>40</v>
+        <v>-50</v>
       </c>
       <c r="AM158" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AN158" s="5">
         <v>20</v>
       </c>
       <c r="AO158" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AP158" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AQ158" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AR158" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS158" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT158" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AU158" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AV158" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AW158" s="5">
         <v>0</v>
@@ -25952,13 +25966,13 @@
         <v>157</v>
       </c>
       <c r="B159" s="3">
-        <v>5030</v>
+        <v>5020</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E159" s="3">
         <v>0</v>
@@ -25967,7 +25981,7 @@
         <v>0</v>
       </c>
       <c r="G159" s="3">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="H159" s="3">
         <v>0</v>
@@ -25979,7 +25993,7 @@
         <v>0</v>
       </c>
       <c r="K159" s="3">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="L159" s="3">
         <v>0</v>
@@ -25997,7 +26011,7 @@
         <v>0</v>
       </c>
       <c r="Q159" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="R159" s="3">
         <v>0</v>
@@ -26033,25 +26047,25 @@
         <v>0</v>
       </c>
       <c r="AC159" s="5" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="AD159" s="5" t="s">
-        <v>242</v>
+        <v>115</v>
       </c>
       <c r="AE159" s="5" t="s">
-        <v>241</v>
+        <v>53</v>
       </c>
       <c r="AF159" s="5" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AG159" s="5" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="AH159" s="5" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="AI159" s="5" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="AJ159" s="5" t="s">
         <v>7</v>
@@ -26060,25 +26074,25 @@
         <v>7</v>
       </c>
       <c r="AL159" s="5">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AM159" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AN159" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AO159" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AP159" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ159" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AR159" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS159" s="5">
         <v>0</v>
@@ -26087,10 +26101,10 @@
         <v>0</v>
       </c>
       <c r="AU159" s="5">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AV159" s="4" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="AW159" s="5">
         <v>0</v>
@@ -26105,150 +26119,303 @@
         <v>158</v>
       </c>
       <c r="B160" s="3">
+        <v>5030</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E160" s="3">
+        <v>0</v>
+      </c>
+      <c r="F160" s="3">
+        <v>0</v>
+      </c>
+      <c r="G160" s="3">
+        <v>120</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0</v>
+      </c>
+      <c r="I160" s="3">
+        <v>0</v>
+      </c>
+      <c r="J160" s="3">
+        <v>0</v>
+      </c>
+      <c r="K160" s="3">
+        <v>70</v>
+      </c>
+      <c r="L160" s="3">
+        <v>0</v>
+      </c>
+      <c r="M160" s="3">
+        <v>0</v>
+      </c>
+      <c r="N160" s="3">
+        <v>0</v>
+      </c>
+      <c r="O160" s="3">
+        <v>0</v>
+      </c>
+      <c r="P160" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="3">
+        <v>70</v>
+      </c>
+      <c r="R160" s="3">
+        <v>0</v>
+      </c>
+      <c r="S160" s="3">
+        <v>0</v>
+      </c>
+      <c r="T160" s="3">
+        <v>0</v>
+      </c>
+      <c r="U160" s="3">
+        <v>0</v>
+      </c>
+      <c r="V160" s="3">
+        <v>0</v>
+      </c>
+      <c r="W160" s="3">
+        <v>0</v>
+      </c>
+      <c r="X160" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y160" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z160" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA160" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB160" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC160" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD160" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE160" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF160" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG160" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH160" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI160" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ160" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK160" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL160" s="5">
+        <v>30</v>
+      </c>
+      <c r="AM160" s="5">
+        <v>30</v>
+      </c>
+      <c r="AN160" s="5">
+        <v>30</v>
+      </c>
+      <c r="AO160" s="5">
+        <v>30</v>
+      </c>
+      <c r="AP160" s="5">
+        <v>10</v>
+      </c>
+      <c r="AQ160" s="5">
+        <v>15</v>
+      </c>
+      <c r="AR160" s="5">
+        <v>10</v>
+      </c>
+      <c r="AS160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV160" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="B161" s="3">
         <v>10000</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E160" s="3">
-        <v>0</v>
-      </c>
-      <c r="F160" s="3">
-        <v>0</v>
-      </c>
-      <c r="G160" s="3">
-        <v>0</v>
-      </c>
-      <c r="H160" s="3">
-        <v>0</v>
-      </c>
-      <c r="I160" s="3">
-        <v>0</v>
-      </c>
-      <c r="J160" s="3">
-        <v>0</v>
-      </c>
-      <c r="K160" s="3">
-        <v>0</v>
-      </c>
-      <c r="L160" s="3">
-        <v>0</v>
-      </c>
-      <c r="M160" s="3">
-        <v>0</v>
-      </c>
-      <c r="N160" s="3">
-        <v>0</v>
-      </c>
-      <c r="O160" s="3">
-        <v>0</v>
-      </c>
-      <c r="P160" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q160" s="3">
-        <v>0</v>
-      </c>
-      <c r="R160" s="3">
-        <v>0</v>
-      </c>
-      <c r="S160" s="3">
-        <v>0</v>
-      </c>
-      <c r="T160" s="3">
-        <v>0</v>
-      </c>
-      <c r="U160" s="3">
-        <v>0</v>
-      </c>
-      <c r="V160" s="3">
-        <v>0</v>
-      </c>
-      <c r="W160" s="3">
-        <v>0</v>
-      </c>
-      <c r="X160" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y160" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z160" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA160" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB160" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK160" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL160" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM160" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN160" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO160" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP160" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ160" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR160" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS160" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT160" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU160" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV160" s="4" t="s">
+      <c r="C161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" s="3">
+        <v>0</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+      <c r="I161" s="3">
+        <v>0</v>
+      </c>
+      <c r="J161" s="3">
+        <v>0</v>
+      </c>
+      <c r="K161" s="3">
+        <v>0</v>
+      </c>
+      <c r="L161" s="3">
+        <v>0</v>
+      </c>
+      <c r="M161" s="3">
+        <v>0</v>
+      </c>
+      <c r="N161" s="3">
+        <v>0</v>
+      </c>
+      <c r="O161" s="3">
+        <v>0</v>
+      </c>
+      <c r="P161" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="3">
+        <v>0</v>
+      </c>
+      <c r="R161" s="3">
+        <v>0</v>
+      </c>
+      <c r="S161" s="3">
+        <v>0</v>
+      </c>
+      <c r="T161" s="3">
+        <v>0</v>
+      </c>
+      <c r="U161" s="3">
+        <v>0</v>
+      </c>
+      <c r="V161" s="3">
+        <v>0</v>
+      </c>
+      <c r="W161" s="3">
+        <v>0</v>
+      </c>
+      <c r="X161" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y161" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z161" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA161" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB161" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK161" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV161" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AW160" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX160" s="5">
+      <c r="AW161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX161" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89800689-B140-416D-9CEF-5182F15326BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C4CC2F-7AD3-4507-9DF2-A7DD2AF5F5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="975" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2910" yWindow="900" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1759,9 +1759,9 @@
   <dimension ref="A1:AX161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J156" sqref="J156"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N40" s="3">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C4CC2F-7AD3-4507-9DF2-A7DD2AF5F5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861AF807-82D8-46BA-9830-EC4C342FB6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="900" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="780" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -1759,9 +1759,9 @@
   <dimension ref="A1:AX161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861AF807-82D8-46BA-9830-EC4C342FB6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7BA6D-65AA-4735-BF1A-2522DBEEDBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="780" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1200" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="303">
   <si>
     <t>desc</t>
   </si>
@@ -1340,6 +1340,10 @@
     <rPh sb="2" eb="3">
       <t>グリ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IceCube</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1758,10 +1762,8 @@
   </sheetPr>
   <dimension ref="A1:AX161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22534,7 +22536,7 @@
         <v>75</v>
       </c>
       <c r="AE136" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF136" s="5" t="s">
         <v>7</v>
@@ -22561,7 +22563,7 @@
         <v>30</v>
       </c>
       <c r="AN136" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO136" s="5">
         <v>0</v>
@@ -22687,7 +22689,7 @@
         <v>75</v>
       </c>
       <c r="AE137" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF137" s="5" t="s">
         <v>7</v>
@@ -22714,7 +22716,7 @@
         <v>30</v>
       </c>
       <c r="AN137" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO137" s="5">
         <v>0</v>
@@ -22840,7 +22842,7 @@
         <v>75</v>
       </c>
       <c r="AE138" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF138" s="5" t="s">
         <v>7</v>
@@ -22867,7 +22869,7 @@
         <v>30</v>
       </c>
       <c r="AN138" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO138" s="5">
         <v>0</v>
@@ -22993,7 +22995,7 @@
         <v>75</v>
       </c>
       <c r="AE139" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF139" s="5" t="s">
         <v>7</v>
@@ -23020,7 +23022,7 @@
         <v>30</v>
       </c>
       <c r="AN139" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO139" s="5">
         <v>0</v>
@@ -23146,7 +23148,7 @@
         <v>75</v>
       </c>
       <c r="AE140" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF140" s="5" t="s">
         <v>7</v>
@@ -23173,7 +23175,7 @@
         <v>30</v>
       </c>
       <c r="AN140" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO140" s="5">
         <v>0</v>
@@ -23299,7 +23301,7 @@
         <v>75</v>
       </c>
       <c r="AE141" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF141" s="5" t="s">
         <v>7</v>
@@ -23326,7 +23328,7 @@
         <v>30</v>
       </c>
       <c r="AN141" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO141" s="5">
         <v>0</v>
@@ -23452,7 +23454,7 @@
         <v>75</v>
       </c>
       <c r="AE142" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF142" s="5" t="s">
         <v>7</v>
@@ -23479,7 +23481,7 @@
         <v>30</v>
       </c>
       <c r="AN142" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO142" s="5">
         <v>0</v>
@@ -23605,7 +23607,7 @@
         <v>75</v>
       </c>
       <c r="AE143" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF143" s="5" t="s">
         <v>7</v>
@@ -23632,7 +23634,7 @@
         <v>30</v>
       </c>
       <c r="AN143" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO143" s="5">
         <v>0</v>
@@ -23758,7 +23760,7 @@
         <v>75</v>
       </c>
       <c r="AE144" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF144" s="5" t="s">
         <v>7</v>
@@ -23785,7 +23787,7 @@
         <v>30</v>
       </c>
       <c r="AN144" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO144" s="5">
         <v>0</v>
@@ -23911,7 +23913,7 @@
         <v>75</v>
       </c>
       <c r="AE145" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF145" s="5" t="s">
         <v>7</v>
@@ -23938,7 +23940,7 @@
         <v>30</v>
       </c>
       <c r="AN145" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO145" s="5">
         <v>0</v>
@@ -24064,7 +24066,7 @@
         <v>75</v>
       </c>
       <c r="AE146" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF146" s="5" t="s">
         <v>7</v>
@@ -24091,7 +24093,7 @@
         <v>30</v>
       </c>
       <c r="AN146" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO146" s="5">
         <v>0</v>
@@ -24220,7 +24222,7 @@
         <v>122</v>
       </c>
       <c r="AF147" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AG147" s="5" t="s">
         <v>7</v>
@@ -24247,7 +24249,7 @@
         <v>30</v>
       </c>
       <c r="AO147" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AP147" s="5">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>55</v>
       </c>
       <c r="AF148" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AG148" s="5" t="s">
         <v>7</v>
@@ -24400,7 +24402,7 @@
         <v>15</v>
       </c>
       <c r="AO148" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AP148" s="5">
         <v>0</v>
@@ -24526,7 +24528,7 @@
         <v>47</v>
       </c>
       <c r="AF149" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AG149" s="5" t="s">
         <v>7</v>
@@ -24553,7 +24555,7 @@
         <v>20</v>
       </c>
       <c r="AO149" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AP149" s="5">
         <v>0</v>
@@ -24676,7 +24678,7 @@
         <v>75</v>
       </c>
       <c r="AE150" s="5" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="AF150" s="5" t="s">
         <v>7</v>
@@ -24703,7 +24705,7 @@
         <v>30</v>
       </c>
       <c r="AN150" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO150" s="5">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C7BA6D-65AA-4735-BF1A-2522DBEEDBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6EAC7B-8023-497B-9976-73E87CDF0421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1200" windowWidth="24420" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="990" windowWidth="25575" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="326">
   <si>
     <t>desc</t>
   </si>
@@ -1346,12 +1346,132 @@
     <t>IceCube</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>lumi_orange_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_grape_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_strawberry_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_banana_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_blueberry_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_emerald_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_pink_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_sapphire_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_silver_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_gold_neko_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>####</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>##</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ルミ系##</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>##NPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>イベント系##</t>
+    </r>
+    <rPh sb="9" eb="10">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_rusk_orange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_rusk_berry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_rusk_redberry</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_orange_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_grape_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_apple_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_redberry_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_blueberry_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lumi_mix_fruits_juice</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1392,8 +1512,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1418,6 +1544,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1431,7 +1563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1443,6 +1575,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1760,10 +1900,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AX161"/>
+  <dimension ref="A1:AX183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1943,7 +2083,7 @@
     </row>
     <row r="2" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A161" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A183" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -25503,156 +25643,156 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
+    <row r="156" spans="1:50" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="11">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="B156" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E156" s="3">
-        <v>0</v>
-      </c>
-      <c r="F156" s="3">
-        <v>0</v>
-      </c>
-      <c r="G156" s="3">
-        <v>120</v>
-      </c>
-      <c r="H156" s="3">
-        <v>0</v>
-      </c>
-      <c r="I156" s="3">
-        <v>60</v>
-      </c>
-      <c r="J156" s="3">
-        <v>120</v>
-      </c>
-      <c r="K156" s="3">
-        <v>0</v>
-      </c>
-      <c r="L156" s="3">
-        <v>0</v>
-      </c>
-      <c r="M156" s="3">
-        <v>0</v>
-      </c>
-      <c r="N156" s="3">
-        <v>0</v>
-      </c>
-      <c r="O156" s="3">
-        <v>0</v>
-      </c>
-      <c r="P156" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="3">
-        <v>50</v>
-      </c>
-      <c r="R156" s="3">
-        <v>0</v>
-      </c>
-      <c r="S156" s="3">
-        <v>0</v>
-      </c>
-      <c r="T156" s="3">
-        <v>0</v>
-      </c>
-      <c r="U156" s="3">
-        <v>0</v>
-      </c>
-      <c r="V156" s="3">
-        <v>0</v>
-      </c>
-      <c r="W156" s="3">
-        <v>0</v>
-      </c>
-      <c r="X156" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y156" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z156" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA156" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB156" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC156" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD156" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE156" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AF156" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG156" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH156" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI156" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ156" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK156" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL156" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM156" s="5">
-        <v>60</v>
-      </c>
-      <c r="AN156" s="5">
-        <v>30</v>
-      </c>
-      <c r="AO156" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP156" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ156" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR156" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS156" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT156" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU156" s="5">
-        <v>-100</v>
-      </c>
-      <c r="AV156" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AW156" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX156" s="5">
+      <c r="B156" s="11">
+        <v>999999</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="11">
+        <v>0</v>
+      </c>
+      <c r="F156" s="11">
+        <v>0</v>
+      </c>
+      <c r="G156" s="11">
+        <v>0</v>
+      </c>
+      <c r="H156" s="11">
+        <v>0</v>
+      </c>
+      <c r="I156" s="11">
+        <v>0</v>
+      </c>
+      <c r="J156" s="11">
+        <v>0</v>
+      </c>
+      <c r="K156" s="11">
+        <v>0</v>
+      </c>
+      <c r="L156" s="11">
+        <v>0</v>
+      </c>
+      <c r="M156" s="11">
+        <v>0</v>
+      </c>
+      <c r="N156" s="11">
+        <v>0</v>
+      </c>
+      <c r="O156" s="11">
+        <v>0</v>
+      </c>
+      <c r="P156" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="11">
+        <v>0</v>
+      </c>
+      <c r="R156" s="11">
+        <v>0</v>
+      </c>
+      <c r="S156" s="11">
+        <v>0</v>
+      </c>
+      <c r="T156" s="11">
+        <v>0</v>
+      </c>
+      <c r="U156" s="11">
+        <v>0</v>
+      </c>
+      <c r="V156" s="11">
+        <v>0</v>
+      </c>
+      <c r="W156" s="11">
+        <v>0</v>
+      </c>
+      <c r="X156" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z156" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA156" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB156" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC156" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD156" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE156" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF156" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG156" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH156" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI156" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ156" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK156" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV156" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX156" s="12">
         <v>0</v>
       </c>
     </row>
@@ -25662,13 +25802,13 @@
         <v>155</v>
       </c>
       <c r="B157" s="3">
-        <v>5010</v>
+        <v>1300</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>7</v>
+        <v>303</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="E157" s="3">
         <v>0</v>
@@ -25677,16 +25817,16 @@
         <v>0</v>
       </c>
       <c r="G157" s="3">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H157" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I157" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J157" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K157" s="3">
         <v>0</v>
@@ -25707,7 +25847,7 @@
         <v>0</v>
       </c>
       <c r="Q157" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R157" s="3">
         <v>0</v>
@@ -25743,64 +25883,64 @@
         <v>0</v>
       </c>
       <c r="AC157" s="5" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="AD157" s="5" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
       <c r="AE157" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="AF157" s="5" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="AG157" s="5" t="s">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="AH157" s="5" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="AI157" s="5" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="AJ157" s="5" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="AK157" s="5" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="AL157" s="5">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="AM157" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN157" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO157" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AP157" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AQ157" s="5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AR157" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS157" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT157" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AU157" s="5">
         <v>0</v>
       </c>
       <c r="AV157" s="4" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="AW157" s="5">
         <v>0</v>
@@ -25815,13 +25955,13 @@
         <v>156</v>
       </c>
       <c r="B158" s="3">
-        <v>5011</v>
+        <v>1301</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>7</v>
+        <v>304</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>264</v>
+        <v>7</v>
       </c>
       <c r="E158" s="3">
         <v>0</v>
@@ -25830,16 +25970,16 @@
         <v>0</v>
       </c>
       <c r="G158" s="3">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H158" s="3">
+        <v>0</v>
+      </c>
+      <c r="I158" s="3">
         <v>30</v>
       </c>
-      <c r="I158" s="3">
-        <v>0</v>
-      </c>
       <c r="J158" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K158" s="3">
         <v>0</v>
@@ -25860,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="Q158" s="3">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="R158" s="3">
         <v>0</v>
@@ -25896,64 +26036,64 @@
         <v>0</v>
       </c>
       <c r="AC158" s="5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="AD158" s="5" t="s">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="AE158" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="AF158" s="5" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="AG158" s="5" t="s">
-        <v>256</v>
+        <v>7</v>
       </c>
       <c r="AH158" s="5" t="s">
-        <v>257</v>
+        <v>7</v>
       </c>
       <c r="AI158" s="5" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="AJ158" s="5" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="AK158" s="5" t="s">
-        <v>258</v>
+        <v>7</v>
       </c>
       <c r="AL158" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM158" s="5">
         <v>-50</v>
       </c>
-      <c r="AM158" s="5">
-        <v>30</v>
-      </c>
       <c r="AN158" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO158" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AP158" s="5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AQ158" s="5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AR158" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS158" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AT158" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AU158" s="5">
         <v>0</v>
       </c>
       <c r="AV158" s="4" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="AW158" s="5">
         <v>0</v>
@@ -25968,34 +26108,34 @@
         <v>157</v>
       </c>
       <c r="B159" s="3">
-        <v>5020</v>
+        <v>1302</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>7</v>
+        <v>305</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E159" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
       </c>
       <c r="G159" s="3">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="H159" s="3">
         <v>0</v>
       </c>
       <c r="I159" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J159" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K159" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L159" s="3">
         <v>0</v>
@@ -26013,7 +26153,7 @@
         <v>0</v>
       </c>
       <c r="Q159" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R159" s="3">
         <v>0</v>
@@ -26049,20 +26189,20 @@
         <v>0</v>
       </c>
       <c r="AC159" s="5" t="s">
-        <v>255</v>
+        <v>47</v>
       </c>
       <c r="AD159" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE159" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF159" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG159" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AE159" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF159" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG159" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="AH159" s="5" t="s">
         <v>7</v>
       </c>
@@ -26076,19 +26216,19 @@
         <v>7</v>
       </c>
       <c r="AL159" s="5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AM159" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AN159" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AO159" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP159" s="5">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="AQ159" s="5">
         <v>0</v>
@@ -26103,10 +26243,10 @@
         <v>0</v>
       </c>
       <c r="AU159" s="5">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AV159" s="4" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="AW159" s="5">
         <v>0</v>
@@ -26121,13 +26261,13 @@
         <v>158</v>
       </c>
       <c r="B160" s="3">
-        <v>5030</v>
+        <v>1303</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>7</v>
+        <v>306</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E160" s="3">
         <v>0</v>
@@ -26136,7 +26276,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="H160" s="3">
         <v>0</v>
@@ -26145,10 +26285,10 @@
         <v>0</v>
       </c>
       <c r="J160" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K160" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L160" s="3">
         <v>0</v>
@@ -26166,7 +26306,7 @@
         <v>0</v>
       </c>
       <c r="Q160" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="R160" s="3">
         <v>0</v>
@@ -26202,25 +26342,25 @@
         <v>0</v>
       </c>
       <c r="AC160" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD160" s="5" t="s">
-        <v>242</v>
+        <v>7</v>
       </c>
       <c r="AE160" s="5" t="s">
-        <v>241</v>
+        <v>7</v>
       </c>
       <c r="AF160" s="5" t="s">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="AG160" s="5" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="AH160" s="5" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="AI160" s="5" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="AJ160" s="5" t="s">
         <v>7</v>
@@ -26229,25 +26369,25 @@
         <v>7</v>
       </c>
       <c r="AL160" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AM160" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AN160" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AO160" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AP160" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ160" s="5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AR160" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS160" s="5">
         <v>0</v>
@@ -26259,7 +26399,7 @@
         <v>0</v>
       </c>
       <c r="AV160" s="4" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="AW160" s="5">
         <v>0</v>
@@ -26274,10 +26414,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="3">
-        <v>10000</v>
+        <v>1304</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>7</v>
+        <v>307</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>7</v>
@@ -26289,16 +26429,16 @@
         <v>0</v>
       </c>
       <c r="G161" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H161" s="3">
         <v>0</v>
       </c>
       <c r="I161" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J161" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K161" s="3">
         <v>0</v>
@@ -26319,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="Q161" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R161" s="3">
         <v>0</v>
@@ -26412,12 +26552,3378 @@
         <v>0</v>
       </c>
       <c r="AV161" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="B162" s="3">
+        <v>1310</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" s="3">
+        <v>0</v>
+      </c>
+      <c r="F162" s="3">
+        <v>0</v>
+      </c>
+      <c r="G162" s="3">
+        <v>32</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+      <c r="I162" s="3">
+        <v>0</v>
+      </c>
+      <c r="J162" s="3">
+        <v>60</v>
+      </c>
+      <c r="K162" s="3">
+        <v>0</v>
+      </c>
+      <c r="L162" s="3">
+        <v>0</v>
+      </c>
+      <c r="M162" s="3">
+        <v>0</v>
+      </c>
+      <c r="N162" s="3">
+        <v>0</v>
+      </c>
+      <c r="O162" s="3">
+        <v>0</v>
+      </c>
+      <c r="P162" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="3">
+        <v>50</v>
+      </c>
+      <c r="R162" s="3">
+        <v>0</v>
+      </c>
+      <c r="S162" s="3">
+        <v>0</v>
+      </c>
+      <c r="T162" s="3">
+        <v>0</v>
+      </c>
+      <c r="U162" s="3">
+        <v>0</v>
+      </c>
+      <c r="V162" s="3">
+        <v>0</v>
+      </c>
+      <c r="W162" s="3">
+        <v>0</v>
+      </c>
+      <c r="X162" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y162" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z162" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA162" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB162" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC162" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL162" s="5">
+        <v>-50</v>
+      </c>
+      <c r="AM162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV162" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="B163" s="3">
+        <v>1311</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="3">
+        <v>0</v>
+      </c>
+      <c r="F163" s="3">
+        <v>0</v>
+      </c>
+      <c r="G163" s="3">
+        <v>70</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0</v>
+      </c>
+      <c r="I163" s="3">
+        <v>0</v>
+      </c>
+      <c r="J163" s="3">
+        <v>80</v>
+      </c>
+      <c r="K163" s="3">
+        <v>0</v>
+      </c>
+      <c r="L163" s="3">
+        <v>0</v>
+      </c>
+      <c r="M163" s="3">
+        <v>0</v>
+      </c>
+      <c r="N163" s="3">
+        <v>0</v>
+      </c>
+      <c r="O163" s="3">
+        <v>0</v>
+      </c>
+      <c r="P163" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="3">
+        <v>50</v>
+      </c>
+      <c r="R163" s="3">
+        <v>0</v>
+      </c>
+      <c r="S163" s="3">
+        <v>0</v>
+      </c>
+      <c r="T163" s="3">
+        <v>0</v>
+      </c>
+      <c r="U163" s="3">
+        <v>0</v>
+      </c>
+      <c r="V163" s="3">
+        <v>0</v>
+      </c>
+      <c r="W163" s="3">
+        <v>0</v>
+      </c>
+      <c r="X163" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y163" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z163" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA163" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB163" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV163" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1312</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" s="3">
+        <v>0</v>
+      </c>
+      <c r="F164" s="3">
+        <v>0</v>
+      </c>
+      <c r="G164" s="3">
+        <v>70</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+      <c r="I164" s="3">
+        <v>0</v>
+      </c>
+      <c r="J164" s="3">
+        <v>80</v>
+      </c>
+      <c r="K164" s="3">
+        <v>0</v>
+      </c>
+      <c r="L164" s="3">
+        <v>0</v>
+      </c>
+      <c r="M164" s="3">
+        <v>0</v>
+      </c>
+      <c r="N164" s="3">
+        <v>0</v>
+      </c>
+      <c r="O164" s="3">
+        <v>0</v>
+      </c>
+      <c r="P164" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="3">
+        <v>50</v>
+      </c>
+      <c r="R164" s="3">
+        <v>0</v>
+      </c>
+      <c r="S164" s="3">
+        <v>0</v>
+      </c>
+      <c r="T164" s="3">
+        <v>0</v>
+      </c>
+      <c r="U164" s="3">
+        <v>0</v>
+      </c>
+      <c r="V164" s="3">
+        <v>0</v>
+      </c>
+      <c r="W164" s="3">
+        <v>0</v>
+      </c>
+      <c r="X164" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y164" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z164" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA164" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB164" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV164" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="B165" s="3">
+        <v>1313</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="3">
+        <v>0</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0</v>
+      </c>
+      <c r="G165" s="3">
+        <v>70</v>
+      </c>
+      <c r="H165" s="3">
+        <v>0</v>
+      </c>
+      <c r="I165" s="3">
+        <v>0</v>
+      </c>
+      <c r="J165" s="3">
+        <v>80</v>
+      </c>
+      <c r="K165" s="3">
+        <v>0</v>
+      </c>
+      <c r="L165" s="3">
+        <v>0</v>
+      </c>
+      <c r="M165" s="3">
+        <v>0</v>
+      </c>
+      <c r="N165" s="3">
+        <v>0</v>
+      </c>
+      <c r="O165" s="3">
+        <v>0</v>
+      </c>
+      <c r="P165" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="3">
+        <v>50</v>
+      </c>
+      <c r="R165" s="3">
+        <v>0</v>
+      </c>
+      <c r="S165" s="3">
+        <v>0</v>
+      </c>
+      <c r="T165" s="3">
+        <v>0</v>
+      </c>
+      <c r="U165" s="3">
+        <v>0</v>
+      </c>
+      <c r="V165" s="3">
+        <v>0</v>
+      </c>
+      <c r="W165" s="3">
+        <v>0</v>
+      </c>
+      <c r="X165" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y165" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z165" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA165" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB165" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV165" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX165" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="B166" s="3">
+        <v>1314</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="3">
+        <v>0</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0</v>
+      </c>
+      <c r="G166" s="3">
+        <v>54</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+      <c r="I166" s="3">
+        <v>0</v>
+      </c>
+      <c r="J166" s="3">
+        <v>70</v>
+      </c>
+      <c r="K166" s="3">
+        <v>0</v>
+      </c>
+      <c r="L166" s="3">
+        <v>0</v>
+      </c>
+      <c r="M166" s="3">
+        <v>0</v>
+      </c>
+      <c r="N166" s="3">
+        <v>0</v>
+      </c>
+      <c r="O166" s="3">
+        <v>0</v>
+      </c>
+      <c r="P166" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="3">
+        <v>50</v>
+      </c>
+      <c r="R166" s="3">
+        <v>0</v>
+      </c>
+      <c r="S166" s="3">
+        <v>0</v>
+      </c>
+      <c r="T166" s="3">
+        <v>0</v>
+      </c>
+      <c r="U166" s="3">
+        <v>0</v>
+      </c>
+      <c r="V166" s="3">
+        <v>0</v>
+      </c>
+      <c r="W166" s="3">
+        <v>0</v>
+      </c>
+      <c r="X166" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y166" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z166" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA166" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB166" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC166" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD166" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE166" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF166" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG166" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH166" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI166" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ166" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK166" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL166" s="5">
+        <v>5</v>
+      </c>
+      <c r="AM166" s="5">
+        <v>10</v>
+      </c>
+      <c r="AN166" s="5">
+        <v>12</v>
+      </c>
+      <c r="AO166" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP166" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ166" s="5">
+        <v>10</v>
+      </c>
+      <c r="AR166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV166" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="B167" s="3">
+        <v>1315</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0</v>
+      </c>
+      <c r="G167" s="3">
+        <v>54</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0</v>
+      </c>
+      <c r="I167" s="3">
+        <v>0</v>
+      </c>
+      <c r="J167" s="3">
+        <v>70</v>
+      </c>
+      <c r="K167" s="3">
+        <v>0</v>
+      </c>
+      <c r="L167" s="3">
+        <v>0</v>
+      </c>
+      <c r="M167" s="3">
+        <v>0</v>
+      </c>
+      <c r="N167" s="3">
+        <v>0</v>
+      </c>
+      <c r="O167" s="3">
+        <v>0</v>
+      </c>
+      <c r="P167" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="3">
+        <v>50</v>
+      </c>
+      <c r="R167" s="3">
+        <v>0</v>
+      </c>
+      <c r="S167" s="3">
+        <v>0</v>
+      </c>
+      <c r="T167" s="3">
+        <v>0</v>
+      </c>
+      <c r="U167" s="3">
+        <v>0</v>
+      </c>
+      <c r="V167" s="3">
+        <v>0</v>
+      </c>
+      <c r="W167" s="3">
+        <v>0</v>
+      </c>
+      <c r="X167" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y167" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z167" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA167" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB167" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC167" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD167" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE167" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF167" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG167" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH167" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI167" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ167" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK167" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL167" s="5">
+        <v>5</v>
+      </c>
+      <c r="AM167" s="5">
+        <v>10</v>
+      </c>
+      <c r="AN167" s="5">
+        <v>12</v>
+      </c>
+      <c r="AO167" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP167" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ167" s="5">
+        <v>10</v>
+      </c>
+      <c r="AR167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV167" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="AW167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:50" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="15">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="B168" s="15">
+        <v>1320</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D168" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="15">
+        <v>0</v>
+      </c>
+      <c r="F168" s="15">
+        <v>0</v>
+      </c>
+      <c r="G168" s="15">
+        <v>54</v>
+      </c>
+      <c r="H168" s="15">
+        <v>20</v>
+      </c>
+      <c r="I168" s="15">
+        <v>30</v>
+      </c>
+      <c r="J168" s="15">
+        <v>60</v>
+      </c>
+      <c r="K168" s="15">
+        <v>0</v>
+      </c>
+      <c r="L168" s="15">
+        <v>0</v>
+      </c>
+      <c r="M168" s="15">
+        <v>0</v>
+      </c>
+      <c r="N168" s="15">
+        <v>0</v>
+      </c>
+      <c r="O168" s="15">
+        <v>0</v>
+      </c>
+      <c r="P168" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="15">
+        <v>50</v>
+      </c>
+      <c r="R168" s="15">
+        <v>0</v>
+      </c>
+      <c r="S168" s="15">
+        <v>0</v>
+      </c>
+      <c r="T168" s="15">
+        <v>0</v>
+      </c>
+      <c r="U168" s="15">
+        <v>0</v>
+      </c>
+      <c r="V168" s="15">
+        <v>0</v>
+      </c>
+      <c r="W168" s="15">
+        <v>0</v>
+      </c>
+      <c r="X168" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y168" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z168" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA168" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB168" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC168" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD168" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE168" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF168" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG168" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH168" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI168" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ168" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK168" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL168" s="16">
+        <v>10</v>
+      </c>
+      <c r="AM168" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN168" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO168" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP168" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ168" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR168" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS168" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT168" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU168" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV168" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW168" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX168" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="B169" s="3">
+        <v>1321</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="3">
+        <v>0</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0</v>
+      </c>
+      <c r="G169" s="3">
+        <v>54</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0</v>
+      </c>
+      <c r="I169" s="3">
+        <v>30</v>
+      </c>
+      <c r="J169" s="3">
+        <v>50</v>
+      </c>
+      <c r="K169" s="3">
+        <v>0</v>
+      </c>
+      <c r="L169" s="3">
+        <v>0</v>
+      </c>
+      <c r="M169" s="3">
+        <v>0</v>
+      </c>
+      <c r="N169" s="3">
+        <v>0</v>
+      </c>
+      <c r="O169" s="3">
+        <v>0</v>
+      </c>
+      <c r="P169" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="3">
+        <v>50</v>
+      </c>
+      <c r="R169" s="3">
+        <v>0</v>
+      </c>
+      <c r="S169" s="3">
+        <v>0</v>
+      </c>
+      <c r="T169" s="3">
+        <v>0</v>
+      </c>
+      <c r="U169" s="3">
+        <v>0</v>
+      </c>
+      <c r="V169" s="3">
+        <v>0</v>
+      </c>
+      <c r="W169" s="3">
+        <v>0</v>
+      </c>
+      <c r="X169" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y169" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z169" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA169" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB169" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK169" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV169" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="B170" s="3">
+        <v>1322</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0</v>
+      </c>
+      <c r="G170" s="3">
+        <v>54</v>
+      </c>
+      <c r="H170" s="3">
+        <v>0</v>
+      </c>
+      <c r="I170" s="3">
+        <v>30</v>
+      </c>
+      <c r="J170" s="3">
+        <v>50</v>
+      </c>
+      <c r="K170" s="3">
+        <v>0</v>
+      </c>
+      <c r="L170" s="3">
+        <v>0</v>
+      </c>
+      <c r="M170" s="3">
+        <v>0</v>
+      </c>
+      <c r="N170" s="3">
+        <v>0</v>
+      </c>
+      <c r="O170" s="3">
+        <v>0</v>
+      </c>
+      <c r="P170" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q170" s="3">
+        <v>50</v>
+      </c>
+      <c r="R170" s="3">
+        <v>0</v>
+      </c>
+      <c r="S170" s="3">
+        <v>0</v>
+      </c>
+      <c r="T170" s="3">
+        <v>0</v>
+      </c>
+      <c r="U170" s="3">
+        <v>0</v>
+      </c>
+      <c r="V170" s="3">
+        <v>0</v>
+      </c>
+      <c r="W170" s="3">
+        <v>0</v>
+      </c>
+      <c r="X170" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y170" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z170" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA170" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB170" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK170" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV170" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:50" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="15">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="B171" s="15">
+        <v>1330</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D171" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="15">
+        <v>0</v>
+      </c>
+      <c r="F171" s="15">
+        <v>0</v>
+      </c>
+      <c r="G171" s="15">
+        <v>55</v>
+      </c>
+      <c r="H171" s="15">
+        <v>0</v>
+      </c>
+      <c r="I171" s="15">
+        <v>0</v>
+      </c>
+      <c r="J171" s="15">
+        <v>0</v>
+      </c>
+      <c r="K171" s="15">
+        <v>0</v>
+      </c>
+      <c r="L171" s="15">
+        <v>0</v>
+      </c>
+      <c r="M171" s="15">
+        <v>0</v>
+      </c>
+      <c r="N171" s="15">
+        <v>0</v>
+      </c>
+      <c r="O171" s="15">
+        <v>0</v>
+      </c>
+      <c r="P171" s="15">
+        <v>75</v>
+      </c>
+      <c r="Q171" s="15">
+        <v>55</v>
+      </c>
+      <c r="R171" s="15">
+        <v>0</v>
+      </c>
+      <c r="S171" s="15">
+        <v>0</v>
+      </c>
+      <c r="T171" s="15">
+        <v>0</v>
+      </c>
+      <c r="U171" s="15">
+        <v>0</v>
+      </c>
+      <c r="V171" s="15">
+        <v>0</v>
+      </c>
+      <c r="W171" s="15">
+        <v>0</v>
+      </c>
+      <c r="X171" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y171" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z171" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA171" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB171" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC171" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD171" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE171" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF171" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG171" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH171" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI171" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ171" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK171" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL171" s="16">
+        <v>-50</v>
+      </c>
+      <c r="AM171" s="16">
+        <v>30</v>
+      </c>
+      <c r="AN171" s="16">
+        <v>50</v>
+      </c>
+      <c r="AO171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV171" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW171" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX171" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:50" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="15">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="B172" s="15">
+        <v>1331</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="15">
+        <v>0</v>
+      </c>
+      <c r="F172" s="15">
+        <v>0</v>
+      </c>
+      <c r="G172" s="15">
+        <v>55</v>
+      </c>
+      <c r="H172" s="15">
+        <v>0</v>
+      </c>
+      <c r="I172" s="15">
+        <v>0</v>
+      </c>
+      <c r="J172" s="15">
+        <v>0</v>
+      </c>
+      <c r="K172" s="15">
+        <v>0</v>
+      </c>
+      <c r="L172" s="15">
+        <v>0</v>
+      </c>
+      <c r="M172" s="15">
+        <v>0</v>
+      </c>
+      <c r="N172" s="15">
+        <v>0</v>
+      </c>
+      <c r="O172" s="15">
+        <v>0</v>
+      </c>
+      <c r="P172" s="15">
+        <v>40</v>
+      </c>
+      <c r="Q172" s="15">
+        <v>55</v>
+      </c>
+      <c r="R172" s="15">
+        <v>0</v>
+      </c>
+      <c r="S172" s="15">
+        <v>0</v>
+      </c>
+      <c r="T172" s="15">
+        <v>0</v>
+      </c>
+      <c r="U172" s="15">
+        <v>0</v>
+      </c>
+      <c r="V172" s="15">
+        <v>0</v>
+      </c>
+      <c r="W172" s="15">
+        <v>0</v>
+      </c>
+      <c r="X172" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y172" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z172" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA172" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB172" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC172" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD172" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE172" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF172" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG172" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH172" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI172" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ172" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK172" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL172" s="16">
+        <v>-50</v>
+      </c>
+      <c r="AM172" s="16">
+        <v>30</v>
+      </c>
+      <c r="AN172" s="16">
+        <v>50</v>
+      </c>
+      <c r="AO172" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP172" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ172" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR172" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS172" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT172" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU172" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV172" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW172" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX172" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:50" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="15">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="B173" s="15">
+        <v>1332</v>
+      </c>
+      <c r="C173" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D173" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" s="15">
+        <v>0</v>
+      </c>
+      <c r="F173" s="15">
+        <v>0</v>
+      </c>
+      <c r="G173" s="15">
+        <v>55</v>
+      </c>
+      <c r="H173" s="15">
+        <v>0</v>
+      </c>
+      <c r="I173" s="15">
+        <v>0</v>
+      </c>
+      <c r="J173" s="15">
+        <v>0</v>
+      </c>
+      <c r="K173" s="15">
+        <v>0</v>
+      </c>
+      <c r="L173" s="15">
+        <v>0</v>
+      </c>
+      <c r="M173" s="15">
+        <v>0</v>
+      </c>
+      <c r="N173" s="15">
+        <v>0</v>
+      </c>
+      <c r="O173" s="15">
+        <v>0</v>
+      </c>
+      <c r="P173" s="15">
+        <v>75</v>
+      </c>
+      <c r="Q173" s="15">
+        <v>55</v>
+      </c>
+      <c r="R173" s="15">
+        <v>0</v>
+      </c>
+      <c r="S173" s="15">
+        <v>0</v>
+      </c>
+      <c r="T173" s="15">
+        <v>0</v>
+      </c>
+      <c r="U173" s="15">
+        <v>0</v>
+      </c>
+      <c r="V173" s="15">
+        <v>0</v>
+      </c>
+      <c r="W173" s="15">
+        <v>0</v>
+      </c>
+      <c r="X173" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y173" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z173" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA173" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB173" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC173" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD173" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE173" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF173" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG173" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH173" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI173" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ173" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK173" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL173" s="16">
+        <v>-50</v>
+      </c>
+      <c r="AM173" s="16">
+        <v>30</v>
+      </c>
+      <c r="AN173" s="16">
+        <v>50</v>
+      </c>
+      <c r="AO173" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP173" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ173" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR173" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS173" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT173" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU173" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV173" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW173" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX173" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:50" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="15">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="B174" s="15">
+        <v>1333</v>
+      </c>
+      <c r="C174" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="15">
+        <v>0</v>
+      </c>
+      <c r="F174" s="15">
+        <v>0</v>
+      </c>
+      <c r="G174" s="15">
+        <v>55</v>
+      </c>
+      <c r="H174" s="15">
+        <v>0</v>
+      </c>
+      <c r="I174" s="15">
+        <v>0</v>
+      </c>
+      <c r="J174" s="15">
+        <v>0</v>
+      </c>
+      <c r="K174" s="15">
+        <v>0</v>
+      </c>
+      <c r="L174" s="15">
+        <v>0</v>
+      </c>
+      <c r="M174" s="15">
+        <v>0</v>
+      </c>
+      <c r="N174" s="15">
+        <v>0</v>
+      </c>
+      <c r="O174" s="15">
+        <v>0</v>
+      </c>
+      <c r="P174" s="15">
+        <v>75</v>
+      </c>
+      <c r="Q174" s="15">
+        <v>55</v>
+      </c>
+      <c r="R174" s="15">
+        <v>0</v>
+      </c>
+      <c r="S174" s="15">
+        <v>0</v>
+      </c>
+      <c r="T174" s="15">
+        <v>0</v>
+      </c>
+      <c r="U174" s="15">
+        <v>0</v>
+      </c>
+      <c r="V174" s="15">
+        <v>0</v>
+      </c>
+      <c r="W174" s="15">
+        <v>0</v>
+      </c>
+      <c r="X174" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y174" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z174" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA174" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB174" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC174" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD174" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE174" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF174" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG174" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH174" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI174" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ174" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK174" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL174" s="16">
+        <v>-50</v>
+      </c>
+      <c r="AM174" s="16">
+        <v>30</v>
+      </c>
+      <c r="AN174" s="16">
+        <v>50</v>
+      </c>
+      <c r="AO174" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP174" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ174" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR174" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS174" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT174" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU174" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV174" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW174" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX174" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:50" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="15">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="B175" s="15">
+        <v>1334</v>
+      </c>
+      <c r="C175" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="15">
+        <v>0</v>
+      </c>
+      <c r="F175" s="15">
+        <v>0</v>
+      </c>
+      <c r="G175" s="15">
+        <v>55</v>
+      </c>
+      <c r="H175" s="15">
+        <v>0</v>
+      </c>
+      <c r="I175" s="15">
+        <v>0</v>
+      </c>
+      <c r="J175" s="15">
+        <v>0</v>
+      </c>
+      <c r="K175" s="15">
+        <v>0</v>
+      </c>
+      <c r="L175" s="15">
+        <v>0</v>
+      </c>
+      <c r="M175" s="15">
+        <v>0</v>
+      </c>
+      <c r="N175" s="15">
+        <v>0</v>
+      </c>
+      <c r="O175" s="15">
+        <v>0</v>
+      </c>
+      <c r="P175" s="15">
+        <v>110</v>
+      </c>
+      <c r="Q175" s="15">
+        <v>55</v>
+      </c>
+      <c r="R175" s="15">
+        <v>0</v>
+      </c>
+      <c r="S175" s="15">
+        <v>0</v>
+      </c>
+      <c r="T175" s="15">
+        <v>0</v>
+      </c>
+      <c r="U175" s="15">
+        <v>0</v>
+      </c>
+      <c r="V175" s="15">
+        <v>0</v>
+      </c>
+      <c r="W175" s="15">
+        <v>0</v>
+      </c>
+      <c r="X175" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z175" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA175" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB175" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC175" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD175" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE175" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF175" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG175" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH175" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI175" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ175" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK175" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL175" s="16">
+        <v>-50</v>
+      </c>
+      <c r="AM175" s="16">
+        <v>30</v>
+      </c>
+      <c r="AN175" s="16">
+        <v>30</v>
+      </c>
+      <c r="AO175" s="16">
+        <v>50</v>
+      </c>
+      <c r="AP175" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ175" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR175" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS175" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT175" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU175" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV175" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW175" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX175" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:50" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="15">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="B176" s="15">
+        <v>1335</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="15">
+        <v>0</v>
+      </c>
+      <c r="F176" s="15">
+        <v>0</v>
+      </c>
+      <c r="G176" s="15">
+        <v>55</v>
+      </c>
+      <c r="H176" s="15">
+        <v>0</v>
+      </c>
+      <c r="I176" s="15">
+        <v>0</v>
+      </c>
+      <c r="J176" s="15">
+        <v>0</v>
+      </c>
+      <c r="K176" s="15">
+        <v>0</v>
+      </c>
+      <c r="L176" s="15">
+        <v>0</v>
+      </c>
+      <c r="M176" s="15">
+        <v>0</v>
+      </c>
+      <c r="N176" s="15">
+        <v>0</v>
+      </c>
+      <c r="O176" s="15">
+        <v>0</v>
+      </c>
+      <c r="P176" s="15">
+        <v>40</v>
+      </c>
+      <c r="Q176" s="15">
+        <v>70</v>
+      </c>
+      <c r="R176" s="15">
+        <v>0</v>
+      </c>
+      <c r="S176" s="15">
+        <v>0</v>
+      </c>
+      <c r="T176" s="15">
+        <v>0</v>
+      </c>
+      <c r="U176" s="15">
+        <v>0</v>
+      </c>
+      <c r="V176" s="15">
+        <v>0</v>
+      </c>
+      <c r="W176" s="15">
+        <v>0</v>
+      </c>
+      <c r="X176" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA176" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB176" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC176" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD176" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE176" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF176" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG176" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH176" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI176" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ176" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK176" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL176" s="16">
+        <v>-50</v>
+      </c>
+      <c r="AM176" s="16">
+        <v>30</v>
+      </c>
+      <c r="AN176" s="16">
+        <v>50</v>
+      </c>
+      <c r="AO176" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP176" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ176" s="16">
+        <v>0</v>
+      </c>
+      <c r="AR176" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS176" s="16">
+        <v>0</v>
+      </c>
+      <c r="AT176" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU176" s="16">
+        <v>0</v>
+      </c>
+      <c r="AV176" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW176" s="16">
+        <v>0</v>
+      </c>
+      <c r="AX176" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:50" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="11">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="B177" s="11">
+        <v>999999</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="11">
+        <v>0</v>
+      </c>
+      <c r="F177" s="11">
+        <v>0</v>
+      </c>
+      <c r="G177" s="11">
+        <v>0</v>
+      </c>
+      <c r="H177" s="11">
+        <v>0</v>
+      </c>
+      <c r="I177" s="11">
+        <v>0</v>
+      </c>
+      <c r="J177" s="11">
+        <v>0</v>
+      </c>
+      <c r="K177" s="11">
+        <v>0</v>
+      </c>
+      <c r="L177" s="11">
+        <v>0</v>
+      </c>
+      <c r="M177" s="11">
+        <v>0</v>
+      </c>
+      <c r="N177" s="11">
+        <v>0</v>
+      </c>
+      <c r="O177" s="11">
+        <v>0</v>
+      </c>
+      <c r="P177" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="11">
+        <v>0</v>
+      </c>
+      <c r="R177" s="11">
+        <v>0</v>
+      </c>
+      <c r="S177" s="11">
+        <v>0</v>
+      </c>
+      <c r="T177" s="11">
+        <v>0</v>
+      </c>
+      <c r="U177" s="11">
+        <v>0</v>
+      </c>
+      <c r="V177" s="11">
+        <v>0</v>
+      </c>
+      <c r="W177" s="11">
+        <v>0</v>
+      </c>
+      <c r="X177" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z177" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA177" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB177" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC177" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD177" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE177" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF177" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG177" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH177" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI177" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ177" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK177" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV177" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AX177" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="B178" s="3">
+        <v>100000</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0</v>
+      </c>
+      <c r="G178" s="3">
+        <v>120</v>
+      </c>
+      <c r="H178" s="3">
+        <v>0</v>
+      </c>
+      <c r="I178" s="3">
+        <v>60</v>
+      </c>
+      <c r="J178" s="3">
+        <v>120</v>
+      </c>
+      <c r="K178" s="3">
+        <v>0</v>
+      </c>
+      <c r="L178" s="3">
+        <v>0</v>
+      </c>
+      <c r="M178" s="3">
+        <v>0</v>
+      </c>
+      <c r="N178" s="3">
+        <v>0</v>
+      </c>
+      <c r="O178" s="3">
+        <v>0</v>
+      </c>
+      <c r="P178" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="3">
+        <v>50</v>
+      </c>
+      <c r="R178" s="3">
+        <v>0</v>
+      </c>
+      <c r="S178" s="3">
+        <v>0</v>
+      </c>
+      <c r="T178" s="3">
+        <v>0</v>
+      </c>
+      <c r="U178" s="3">
+        <v>0</v>
+      </c>
+      <c r="V178" s="3">
+        <v>0</v>
+      </c>
+      <c r="W178" s="3">
+        <v>0</v>
+      </c>
+      <c r="X178" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y178" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z178" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA178" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB178" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD178" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE178" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK178" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM178" s="5">
+        <v>60</v>
+      </c>
+      <c r="AN178" s="5">
+        <v>30</v>
+      </c>
+      <c r="AO178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU178" s="5">
+        <v>-100</v>
+      </c>
+      <c r="AV178" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AW178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="B179" s="3">
+        <v>100010</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F179" s="3">
+        <v>0</v>
+      </c>
+      <c r="G179" s="3">
+        <v>52</v>
+      </c>
+      <c r="H179" s="3">
+        <v>30</v>
+      </c>
+      <c r="I179" s="3">
+        <v>0</v>
+      </c>
+      <c r="J179" s="3">
+        <v>70</v>
+      </c>
+      <c r="K179" s="3">
+        <v>0</v>
+      </c>
+      <c r="L179" s="3">
+        <v>0</v>
+      </c>
+      <c r="M179" s="3">
+        <v>0</v>
+      </c>
+      <c r="N179" s="3">
+        <v>0</v>
+      </c>
+      <c r="O179" s="3">
+        <v>0</v>
+      </c>
+      <c r="P179" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="3">
+        <v>80</v>
+      </c>
+      <c r="R179" s="3">
+        <v>0</v>
+      </c>
+      <c r="S179" s="3">
+        <v>0</v>
+      </c>
+      <c r="T179" s="3">
+        <v>0</v>
+      </c>
+      <c r="U179" s="3">
+        <v>0</v>
+      </c>
+      <c r="V179" s="3">
+        <v>0</v>
+      </c>
+      <c r="W179" s="3">
+        <v>0</v>
+      </c>
+      <c r="X179" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z179" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA179" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB179" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC179" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD179" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE179" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF179" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG179" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH179" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI179" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ179" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK179" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL179" s="5">
+        <v>-50</v>
+      </c>
+      <c r="AM179" s="5">
+        <v>30</v>
+      </c>
+      <c r="AN179" s="5">
+        <v>20</v>
+      </c>
+      <c r="AO179" s="5">
+        <v>12</v>
+      </c>
+      <c r="AP179" s="5">
+        <v>12</v>
+      </c>
+      <c r="AQ179" s="5">
+        <v>40</v>
+      </c>
+      <c r="AR179" s="5">
+        <v>10</v>
+      </c>
+      <c r="AS179" s="5">
+        <v>10</v>
+      </c>
+      <c r="AT179" s="5">
+        <v>30</v>
+      </c>
+      <c r="AU179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV179" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="B180" s="3">
+        <v>100011</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E180" s="3">
+        <v>0</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0</v>
+      </c>
+      <c r="G180" s="3">
+        <v>52</v>
+      </c>
+      <c r="H180" s="3">
+        <v>30</v>
+      </c>
+      <c r="I180" s="3">
+        <v>0</v>
+      </c>
+      <c r="J180" s="3">
+        <v>70</v>
+      </c>
+      <c r="K180" s="3">
+        <v>0</v>
+      </c>
+      <c r="L180" s="3">
+        <v>0</v>
+      </c>
+      <c r="M180" s="3">
+        <v>0</v>
+      </c>
+      <c r="N180" s="3">
+        <v>0</v>
+      </c>
+      <c r="O180" s="3">
+        <v>0</v>
+      </c>
+      <c r="P180" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="3">
+        <v>80</v>
+      </c>
+      <c r="R180" s="3">
+        <v>0</v>
+      </c>
+      <c r="S180" s="3">
+        <v>0</v>
+      </c>
+      <c r="T180" s="3">
+        <v>0</v>
+      </c>
+      <c r="U180" s="3">
+        <v>0</v>
+      </c>
+      <c r="V180" s="3">
+        <v>0</v>
+      </c>
+      <c r="W180" s="3">
+        <v>0</v>
+      </c>
+      <c r="X180" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z180" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA180" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB180" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC180" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD180" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE180" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF180" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG180" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH180" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI180" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ180" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK180" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL180" s="5">
+        <v>-50</v>
+      </c>
+      <c r="AM180" s="5">
+        <v>30</v>
+      </c>
+      <c r="AN180" s="5">
+        <v>20</v>
+      </c>
+      <c r="AO180" s="5">
+        <v>12</v>
+      </c>
+      <c r="AP180" s="5">
+        <v>12</v>
+      </c>
+      <c r="AQ180" s="5">
+        <v>40</v>
+      </c>
+      <c r="AR180" s="5">
+        <v>10</v>
+      </c>
+      <c r="AS180" s="5">
+        <v>10</v>
+      </c>
+      <c r="AT180" s="5">
+        <v>30</v>
+      </c>
+      <c r="AU180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV180" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="B181" s="3">
+        <v>100020</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E181" s="3">
+        <v>0</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0</v>
+      </c>
+      <c r="G181" s="3">
+        <v>97</v>
+      </c>
+      <c r="H181" s="3">
+        <v>0</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0</v>
+      </c>
+      <c r="J181" s="3">
+        <v>0</v>
+      </c>
+      <c r="K181" s="3">
+        <v>150</v>
+      </c>
+      <c r="L181" s="3">
+        <v>0</v>
+      </c>
+      <c r="M181" s="3">
+        <v>0</v>
+      </c>
+      <c r="N181" s="3">
+        <v>0</v>
+      </c>
+      <c r="O181" s="3">
+        <v>0</v>
+      </c>
+      <c r="P181" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="3">
+        <v>100</v>
+      </c>
+      <c r="R181" s="3">
+        <v>0</v>
+      </c>
+      <c r="S181" s="3">
+        <v>0</v>
+      </c>
+      <c r="T181" s="3">
+        <v>0</v>
+      </c>
+      <c r="U181" s="3">
+        <v>0</v>
+      </c>
+      <c r="V181" s="3">
+        <v>0</v>
+      </c>
+      <c r="W181" s="3">
+        <v>0</v>
+      </c>
+      <c r="X181" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z181" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA181" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB181" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC181" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD181" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE181" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK181" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL181" s="5">
+        <v>40</v>
+      </c>
+      <c r="AM181" s="5">
+        <v>20</v>
+      </c>
+      <c r="AN181" s="5">
+        <v>20</v>
+      </c>
+      <c r="AO181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU181" s="5">
+        <v>-100</v>
+      </c>
+      <c r="AV181" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AW181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX181" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="B182" s="3">
+        <v>100030</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+      <c r="F182" s="3">
+        <v>0</v>
+      </c>
+      <c r="G182" s="3">
+        <v>120</v>
+      </c>
+      <c r="H182" s="3">
+        <v>0</v>
+      </c>
+      <c r="I182" s="3">
+        <v>0</v>
+      </c>
+      <c r="J182" s="3">
+        <v>0</v>
+      </c>
+      <c r="K182" s="3">
+        <v>70</v>
+      </c>
+      <c r="L182" s="3">
+        <v>0</v>
+      </c>
+      <c r="M182" s="3">
+        <v>0</v>
+      </c>
+      <c r="N182" s="3">
+        <v>0</v>
+      </c>
+      <c r="O182" s="3">
+        <v>0</v>
+      </c>
+      <c r="P182" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="3">
+        <v>70</v>
+      </c>
+      <c r="R182" s="3">
+        <v>0</v>
+      </c>
+      <c r="S182" s="3">
+        <v>0</v>
+      </c>
+      <c r="T182" s="3">
+        <v>0</v>
+      </c>
+      <c r="U182" s="3">
+        <v>0</v>
+      </c>
+      <c r="V182" s="3">
+        <v>0</v>
+      </c>
+      <c r="W182" s="3">
+        <v>0</v>
+      </c>
+      <c r="X182" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y182" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z182" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA182" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB182" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC182" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD182" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE182" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF182" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG182" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH182" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI182" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ182" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK182" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL182" s="5">
+        <v>30</v>
+      </c>
+      <c r="AM182" s="5">
+        <v>30</v>
+      </c>
+      <c r="AN182" s="5">
+        <v>30</v>
+      </c>
+      <c r="AO182" s="5">
+        <v>30</v>
+      </c>
+      <c r="AP182" s="5">
+        <v>10</v>
+      </c>
+      <c r="AQ182" s="5">
+        <v>15</v>
+      </c>
+      <c r="AR182" s="5">
+        <v>10</v>
+      </c>
+      <c r="AS182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV182" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="B183" s="3">
+        <v>999999</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0</v>
+      </c>
+      <c r="F183" s="3">
+        <v>0</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="3">
+        <v>0</v>
+      </c>
+      <c r="I183" s="3">
+        <v>0</v>
+      </c>
+      <c r="J183" s="3">
+        <v>0</v>
+      </c>
+      <c r="K183" s="3">
+        <v>0</v>
+      </c>
+      <c r="L183" s="3">
+        <v>0</v>
+      </c>
+      <c r="M183" s="3">
+        <v>0</v>
+      </c>
+      <c r="N183" s="3">
+        <v>0</v>
+      </c>
+      <c r="O183" s="3">
+        <v>0</v>
+      </c>
+      <c r="P183" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="3">
+        <v>0</v>
+      </c>
+      <c r="R183" s="3">
+        <v>0</v>
+      </c>
+      <c r="S183" s="3">
+        <v>0</v>
+      </c>
+      <c r="T183" s="3">
+        <v>0</v>
+      </c>
+      <c r="U183" s="3">
+        <v>0</v>
+      </c>
+      <c r="V183" s="3">
+        <v>0</v>
+      </c>
+      <c r="W183" s="3">
+        <v>0</v>
+      </c>
+      <c r="X183" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y183" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z183" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA183" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB183" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK183" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV183" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="AW161" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX161" s="5">
+      <c r="AW183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX183" s="5">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_GirlLikeSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFD269B-BBBF-4A73-92A1-6324B881DABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E915DE1-4009-4740-B468-32CE1E8986E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="915" windowWidth="25575" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="1125" windowWidth="25560" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_GirlLikeSetData" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3698" uniqueCount="445">
   <si>
     <t>desc</t>
   </si>
@@ -2303,6 +2303,13 @@
     <t>cafelatte_art</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>条件競売</t>
+    <rPh sb="0" eb="4">
+      <t>ジョウケンキョウバイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -2733,10 +2740,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AX304"/>
+  <dimension ref="A1:AX305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV305" sqref="AV305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2916,7 +2923,7 @@
     </row>
     <row r="2" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A304" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A305" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -49122,154 +49129,307 @@
     </row>
     <row r="304" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
+        <f t="shared" ref="A304" si="10">ROW()-2</f>
+        <v>302</v>
+      </c>
+      <c r="B304" s="3">
+        <v>100040</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E304" s="3">
+        <v>0</v>
+      </c>
+      <c r="F304" s="3">
+        <v>0</v>
+      </c>
+      <c r="G304" s="3">
+        <v>32</v>
+      </c>
+      <c r="H304" s="3">
+        <v>0</v>
+      </c>
+      <c r="I304" s="3">
+        <v>0</v>
+      </c>
+      <c r="J304" s="3">
+        <v>60</v>
+      </c>
+      <c r="K304" s="3">
+        <v>0</v>
+      </c>
+      <c r="L304" s="3">
+        <v>0</v>
+      </c>
+      <c r="M304" s="3">
+        <v>0</v>
+      </c>
+      <c r="N304" s="3">
+        <v>0</v>
+      </c>
+      <c r="O304" s="3">
+        <v>0</v>
+      </c>
+      <c r="P304" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q304" s="3">
+        <v>50</v>
+      </c>
+      <c r="R304" s="3">
+        <v>0</v>
+      </c>
+      <c r="S304" s="3">
+        <v>0</v>
+      </c>
+      <c r="T304" s="3">
+        <v>0</v>
+      </c>
+      <c r="U304" s="3">
+        <v>0</v>
+      </c>
+      <c r="V304" s="3">
+        <v>0</v>
+      </c>
+      <c r="W304" s="3">
+        <v>0</v>
+      </c>
+      <c r="X304" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y304" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z304" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA304" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB304" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC304" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD304" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE304" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF304" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG304" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH304" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI304" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ304" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK304" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL304" s="5">
+        <v>5</v>
+      </c>
+      <c r="AM304" s="5">
+        <v>10</v>
+      </c>
+      <c r="AN304" s="5">
+        <v>12</v>
+      </c>
+      <c r="AO304" s="5">
+        <v>20</v>
+      </c>
+      <c r="AP304" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ304" s="5">
+        <v>10</v>
+      </c>
+      <c r="AR304" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS304" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT304" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU304" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV304" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW304" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX304" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
         <f t="shared" si="0"/>
-        <v>302</v>
-      </c>
-      <c r="B304" s="3">
+        <v>303</v>
+      </c>
+      <c r="B305" s="3">
         <v>999999</v>
       </c>
-      <c r="C304" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E304" s="3">
-        <v>0</v>
-      </c>
-      <c r="F304" s="3">
-        <v>0</v>
-      </c>
-      <c r="G304" s="3">
-        <v>0</v>
-      </c>
-      <c r="H304" s="3">
-        <v>0</v>
-      </c>
-      <c r="I304" s="3">
-        <v>0</v>
-      </c>
-      <c r="J304" s="3">
-        <v>0</v>
-      </c>
-      <c r="K304" s="3">
-        <v>0</v>
-      </c>
-      <c r="L304" s="3">
-        <v>0</v>
-      </c>
-      <c r="M304" s="3">
-        <v>0</v>
-      </c>
-      <c r="N304" s="3">
-        <v>0</v>
-      </c>
-      <c r="O304" s="3">
-        <v>0</v>
-      </c>
-      <c r="P304" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q304" s="3">
-        <v>0</v>
-      </c>
-      <c r="R304" s="3">
-        <v>0</v>
-      </c>
-      <c r="S304" s="3">
-        <v>0</v>
-      </c>
-      <c r="T304" s="3">
-        <v>0</v>
-      </c>
-      <c r="U304" s="3">
-        <v>0</v>
-      </c>
-      <c r="V304" s="3">
-        <v>0</v>
-      </c>
-      <c r="W304" s="3">
-        <v>0</v>
-      </c>
-      <c r="X304" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y304" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z304" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA304" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB304" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC304" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD304" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE304" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF304" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG304" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH304" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI304" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ304" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK304" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL304" s="5">
-        <v>0</v>
-      </c>
-      <c r="AM304" s="5">
-        <v>0</v>
-      </c>
-      <c r="AN304" s="5">
-        <v>0</v>
-      </c>
-      <c r="AO304" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP304" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ304" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR304" s="5">
-        <v>0</v>
-      </c>
-      <c r="AS304" s="5">
-        <v>0</v>
-      </c>
-      <c r="AT304" s="5">
-        <v>0</v>
-      </c>
-      <c r="AU304" s="5">
-        <v>0</v>
-      </c>
-      <c r="AV304" s="4" t="s">
+      <c r="C305" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" s="3">
+        <v>0</v>
+      </c>
+      <c r="F305" s="3">
+        <v>0</v>
+      </c>
+      <c r="G305" s="3">
+        <v>0</v>
+      </c>
+      <c r="H305" s="3">
+        <v>0</v>
+      </c>
+      <c r="I305" s="3">
+        <v>0</v>
+      </c>
+      <c r="J305" s="3">
+        <v>0</v>
+      </c>
+      <c r="K305" s="3">
+        <v>0</v>
+      </c>
+      <c r="L305" s="3">
+        <v>0</v>
+      </c>
+      <c r="M305" s="3">
+        <v>0</v>
+      </c>
+      <c r="N305" s="3">
+        <v>0</v>
+      </c>
+      <c r="O305" s="3">
+        <v>0</v>
+      </c>
+      <c r="P305" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q305" s="3">
+        <v>0</v>
+      </c>
+      <c r="R305" s="3">
+        <v>0</v>
+      </c>
+      <c r="S305" s="3">
+        <v>0</v>
+      </c>
+      <c r="T305" s="3">
+        <v>0</v>
+      </c>
+      <c r="U305" s="3">
+        <v>0</v>
+      </c>
+      <c r="V305" s="3">
+        <v>0</v>
+      </c>
+      <c r="W305" s="3">
+        <v>0</v>
+      </c>
+      <c r="X305" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y305" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z305" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA305" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB305" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK305" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV305" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AW304" s="5">
-        <v>0</v>
-      </c>
-      <c r="AX304" s="5">
+      <c r="AW305" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX305" s="5">
         <v>1</v>
       </c>
     </row>
